--- a/stock_historical_data/1wk/INDIAGLYCO.NS.xlsx
+++ b/stock_historical_data/1wk/INDIAGLYCO.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1143"/>
+  <dimension ref="A1:R1178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10326,7 +10326,7 @@
         <v>1</v>
       </c>
       <c r="R176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -10830,7 +10830,7 @@
         <v>2</v>
       </c>
       <c r="R185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
@@ -11502,7 +11502,7 @@
         <v>1</v>
       </c>
       <c r="R197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -11838,7 +11838,7 @@
         <v>2</v>
       </c>
       <c r="R203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204">
@@ -12118,7 +12118,7 @@
         <v>1</v>
       </c>
       <c r="R208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -12678,7 +12678,7 @@
         <v>2</v>
       </c>
       <c r="R218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219">
@@ -13574,7 +13574,7 @@
         <v>1</v>
       </c>
       <c r="R234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -13910,7 +13910,7 @@
         <v>2</v>
       </c>
       <c r="R240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241">
@@ -14246,7 +14246,7 @@
         <v>1</v>
       </c>
       <c r="R246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -14806,7 +14806,7 @@
         <v>2</v>
       </c>
       <c r="R256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257">
@@ -15030,7 +15030,7 @@
         <v>1</v>
       </c>
       <c r="R260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -15590,7 +15590,7 @@
         <v>1</v>
       </c>
       <c r="R270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -16766,7 +16766,7 @@
         <v>2</v>
       </c>
       <c r="R291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292">
@@ -17326,7 +17326,7 @@
         <v>1</v>
       </c>
       <c r="R301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -17718,7 +17718,7 @@
         <v>2</v>
       </c>
       <c r="R308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309">
@@ -18334,7 +18334,7 @@
         <v>2</v>
       </c>
       <c r="R319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320">
@@ -19342,7 +19342,7 @@
         <v>1</v>
       </c>
       <c r="R337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
@@ -19454,7 +19454,7 @@
         <v>2</v>
       </c>
       <c r="R339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340">
@@ -20126,7 +20126,7 @@
         <v>1</v>
       </c>
       <c r="R351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -20798,7 +20798,7 @@
         <v>2</v>
       </c>
       <c r="R363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364">
@@ -21134,7 +21134,7 @@
         <v>1</v>
       </c>
       <c r="R369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
@@ -21582,7 +21582,7 @@
         <v>2</v>
       </c>
       <c r="R377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378">
@@ -21974,7 +21974,7 @@
         <v>2</v>
       </c>
       <c r="R384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385">
@@ -22590,7 +22590,7 @@
         <v>2</v>
       </c>
       <c r="R395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396">
@@ -22814,7 +22814,7 @@
         <v>1</v>
       </c>
       <c r="R399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
@@ -23262,7 +23262,7 @@
         <v>2</v>
       </c>
       <c r="R407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408">
@@ -23654,7 +23654,7 @@
         <v>1</v>
       </c>
       <c r="R414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
@@ -24102,7 +24102,7 @@
         <v>2</v>
       </c>
       <c r="R422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423">
@@ -24438,7 +24438,7 @@
         <v>1</v>
       </c>
       <c r="R428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429">
@@ -24998,7 +24998,7 @@
         <v>2</v>
       </c>
       <c r="R438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439">
@@ -25222,7 +25222,7 @@
         <v>1</v>
       </c>
       <c r="R442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443">
@@ -25894,7 +25894,7 @@
         <v>1</v>
       </c>
       <c r="R454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455">
@@ -26174,7 +26174,7 @@
         <v>2</v>
       </c>
       <c r="R459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460">
@@ -26566,7 +26566,7 @@
         <v>1</v>
       </c>
       <c r="R466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467">
@@ -27014,7 +27014,7 @@
         <v>2</v>
       </c>
       <c r="R474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475">
@@ -27630,7 +27630,7 @@
         <v>1</v>
       </c>
       <c r="R485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486">
@@ -27910,7 +27910,7 @@
         <v>2</v>
       </c>
       <c r="R490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491">
@@ -28638,7 +28638,7 @@
         <v>2</v>
       </c>
       <c r="R503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504">
@@ -29030,7 +29030,7 @@
         <v>1</v>
       </c>
       <c r="R510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511">
@@ -29142,7 +29142,7 @@
         <v>2</v>
       </c>
       <c r="R512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513">
@@ -29590,7 +29590,7 @@
         <v>1</v>
       </c>
       <c r="R520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521">
@@ -30710,7 +30710,7 @@
         <v>2</v>
       </c>
       <c r="R540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541">
@@ -31886,7 +31886,7 @@
         <v>1</v>
       </c>
       <c r="R561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562">
@@ -32334,7 +32334,7 @@
         <v>2</v>
       </c>
       <c r="R569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570">
@@ -33286,7 +33286,7 @@
         <v>2</v>
       </c>
       <c r="R586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587">
@@ -33342,7 +33342,7 @@
         <v>1</v>
       </c>
       <c r="R587" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588">
@@ -33734,7 +33734,7 @@
         <v>2</v>
       </c>
       <c r="R594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595">
@@ -34182,7 +34182,7 @@
         <v>2</v>
       </c>
       <c r="R602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603">
@@ -35638,7 +35638,7 @@
         <v>2</v>
       </c>
       <c r="R628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629">
@@ -36198,7 +36198,7 @@
         <v>2</v>
       </c>
       <c r="R638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639">
@@ -36478,7 +36478,7 @@
         <v>1</v>
       </c>
       <c r="R643" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644">
@@ -36646,7 +36646,7 @@
         <v>2</v>
       </c>
       <c r="R646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647">
@@ -36982,7 +36982,7 @@
         <v>1</v>
       </c>
       <c r="R652" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653">
@@ -37374,7 +37374,7 @@
         <v>2</v>
       </c>
       <c r="R659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660">
@@ -37766,7 +37766,7 @@
         <v>1</v>
       </c>
       <c r="R666" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667">
@@ -37878,7 +37878,7 @@
         <v>2</v>
       </c>
       <c r="R668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669">
@@ -38382,7 +38382,7 @@
         <v>1</v>
       </c>
       <c r="R677" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678">
@@ -38886,7 +38886,7 @@
         <v>2</v>
       </c>
       <c r="R686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687">
@@ -39110,7 +39110,7 @@
         <v>1</v>
       </c>
       <c r="R690" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691">
@@ -39614,7 +39614,7 @@
         <v>1</v>
       </c>
       <c r="R699" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700">
@@ -39782,7 +39782,7 @@
         <v>2</v>
       </c>
       <c r="R702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703">
@@ -40510,7 +40510,7 @@
         <v>1</v>
       </c>
       <c r="R715" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716">
@@ -40622,7 +40622,7 @@
         <v>2</v>
       </c>
       <c r="R717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718">
@@ -41070,7 +41070,7 @@
         <v>1</v>
       </c>
       <c r="R725" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726">
@@ -41406,7 +41406,7 @@
         <v>2</v>
       </c>
       <c r="R731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732">
@@ -41798,7 +41798,7 @@
         <v>1</v>
       </c>
       <c r="R738" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739">
@@ -42414,7 +42414,7 @@
         <v>2</v>
       </c>
       <c r="R749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750">
@@ -42526,7 +42526,7 @@
         <v>1</v>
       </c>
       <c r="R751" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752">
@@ -43254,7 +43254,7 @@
         <v>2</v>
       </c>
       <c r="R764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765">
@@ -43590,7 +43590,7 @@
         <v>1</v>
       </c>
       <c r="R770" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771">
@@ -44486,7 +44486,7 @@
         <v>2</v>
       </c>
       <c r="R786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787">
@@ -44710,7 +44710,7 @@
         <v>1</v>
       </c>
       <c r="R790" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791">
@@ -45942,7 +45942,7 @@
         <v>2</v>
       </c>
       <c r="R812" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813">
@@ -46166,7 +46166,7 @@
         <v>1</v>
       </c>
       <c r="R816" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817">
@@ -46502,7 +46502,7 @@
         <v>1</v>
       </c>
       <c r="R822" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823">
@@ -46782,7 +46782,7 @@
         <v>2</v>
       </c>
       <c r="R827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828">
@@ -47342,7 +47342,7 @@
         <v>1</v>
       </c>
       <c r="R837" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838">
@@ -47566,7 +47566,7 @@
         <v>2</v>
       </c>
       <c r="R841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842">
@@ -47958,7 +47958,7 @@
         <v>2</v>
       </c>
       <c r="R848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="849">
@@ -48574,7 +48574,7 @@
         <v>1</v>
       </c>
       <c r="R859" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860">
@@ -48910,7 +48910,7 @@
         <v>2</v>
       </c>
       <c r="R865" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="866">
@@ -49190,7 +49190,7 @@
         <v>1</v>
       </c>
       <c r="R870" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871">
@@ -49302,7 +49302,7 @@
         <v>2</v>
       </c>
       <c r="R872" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="873">
@@ -49862,7 +49862,7 @@
         <v>1</v>
       </c>
       <c r="R882" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883">
@@ -49974,7 +49974,7 @@
         <v>2</v>
       </c>
       <c r="R884" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="885">
@@ -50646,7 +50646,7 @@
         <v>1</v>
       </c>
       <c r="R896" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897">
@@ -50926,7 +50926,7 @@
         <v>2</v>
       </c>
       <c r="R901" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="902">
@@ -51542,7 +51542,7 @@
         <v>1</v>
       </c>
       <c r="R912" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913">
@@ -52158,7 +52158,7 @@
         <v>2</v>
       </c>
       <c r="R923" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="924">
@@ -52382,7 +52382,7 @@
         <v>1</v>
       </c>
       <c r="R927" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="928">
@@ -52606,7 +52606,7 @@
         <v>2</v>
       </c>
       <c r="R931" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="932">
@@ -52830,7 +52830,7 @@
         <v>1</v>
       </c>
       <c r="R935" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="936">
@@ -52998,7 +52998,7 @@
         <v>2</v>
       </c>
       <c r="R938" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="939">
@@ -53446,7 +53446,7 @@
         <v>1</v>
       </c>
       <c r="R946" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="947">
@@ -53614,7 +53614,7 @@
         <v>2</v>
       </c>
       <c r="R949" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="950">
@@ -55182,7 +55182,7 @@
         <v>2</v>
       </c>
       <c r="R977" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="978">
@@ -55462,7 +55462,7 @@
         <v>1</v>
       </c>
       <c r="R982" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="983">
@@ -56190,7 +56190,7 @@
         <v>2</v>
       </c>
       <c r="R995" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="996">
@@ -56526,7 +56526,7 @@
         <v>1</v>
       </c>
       <c r="R1001" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1002">
@@ -57142,7 +57142,7 @@
         <v>2</v>
       </c>
       <c r="R1012" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1013">
@@ -57534,7 +57534,7 @@
         <v>1</v>
       </c>
       <c r="R1019" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1020">
@@ -57702,7 +57702,7 @@
         <v>2</v>
       </c>
       <c r="R1022" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1023">
@@ -57982,7 +57982,7 @@
         <v>1</v>
       </c>
       <c r="R1027" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1028">
@@ -58318,7 +58318,7 @@
         <v>2</v>
       </c>
       <c r="R1033" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1034">
@@ -58934,7 +58934,7 @@
         <v>1</v>
       </c>
       <c r="R1044" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1045">
@@ -59214,7 +59214,7 @@
         <v>2</v>
       </c>
       <c r="R1049" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1050">
@@ -60950,7 +60950,7 @@
         <v>1</v>
       </c>
       <c r="R1080" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1081">
@@ -61398,7 +61398,7 @@
         <v>1</v>
       </c>
       <c r="R1088" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1089">
@@ -62014,7 +62014,7 @@
         <v>1</v>
       </c>
       <c r="R1099" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1100">
@@ -62518,7 +62518,7 @@
         <v>2</v>
       </c>
       <c r="R1108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1109">
@@ -62854,7 +62854,7 @@
         <v>1</v>
       </c>
       <c r="R1114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1115">
@@ -63246,7 +63246,7 @@
         <v>1</v>
       </c>
       <c r="R1121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1122">
@@ -63694,7 +63694,7 @@
         <v>2</v>
       </c>
       <c r="R1129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1130">
@@ -63974,7 +63974,7 @@
         <v>1</v>
       </c>
       <c r="R1134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1135">
@@ -64301,7 +64301,7 @@
         <v>23</v>
       </c>
       <c r="O1140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1140" t="n">
         <v>0</v>
@@ -64421,7 +64421,9 @@
       <c r="Q1142" t="n">
         <v>0</v>
       </c>
-      <c r="R1142" t="inlineStr"/>
+      <c r="R1142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1143">
       <c r="A1143" s="2" t="n">
@@ -64475,7 +64477,1829 @@
       <c r="Q1143" t="n">
         <v>0</v>
       </c>
-      <c r="R1143" t="inlineStr"/>
+      <c r="R1143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1144" t="n">
+        <v>914.1822350236001</v>
+      </c>
+      <c r="C1144" t="n">
+        <v>944.9862016385258</v>
+      </c>
+      <c r="D1144" t="n">
+        <v>898.3330852322115</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>922.9265747070312</v>
+      </c>
+      <c r="F1144" t="inlineStr"/>
+      <c r="G1144" t="n">
+        <v>1315585</v>
+      </c>
+      <c r="H1144" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1144" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1144" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1144" t="inlineStr"/>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1145" t="n">
+        <v>926.0566802846025</v>
+      </c>
+      <c r="C1145" t="n">
+        <v>1002.867849493209</v>
+      </c>
+      <c r="D1145" t="n">
+        <v>899.2770907023571</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>986.571533203125</v>
+      </c>
+      <c r="F1145" t="inlineStr"/>
+      <c r="G1145" t="n">
+        <v>3177676</v>
+      </c>
+      <c r="H1145" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1145" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1145" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1145" t="inlineStr"/>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1146" t="n">
+        <v>992.5833427525025</v>
+      </c>
+      <c r="C1146" t="n">
+        <v>1038.391798803687</v>
+      </c>
+      <c r="D1146" t="n">
+        <v>973.9021786183074</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>1012.556213378906</v>
+      </c>
+      <c r="F1146" t="inlineStr"/>
+      <c r="G1146" t="n">
+        <v>2691873</v>
+      </c>
+      <c r="H1146" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1146" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1146" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1146" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1146" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1146" t="inlineStr"/>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1147" t="n">
+        <v>1023.486623216712</v>
+      </c>
+      <c r="C1147" t="n">
+        <v>1202.348363196332</v>
+      </c>
+      <c r="D1147" t="n">
+        <v>969.0331722860881</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>1142.727783203125</v>
+      </c>
+      <c r="F1147" t="inlineStr"/>
+      <c r="G1147" t="n">
+        <v>3799267</v>
+      </c>
+      <c r="H1147" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1147" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1147" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1147" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1147" t="inlineStr"/>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>1157.632934228925</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>1266.937331452257</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>1152.714284873228</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>1243.5859375</v>
+      </c>
+      <c r="F1148" t="inlineStr"/>
+      <c r="G1148" t="n">
+        <v>4348818</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1148" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>1212.235421587596</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>1216.259859347437</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>1120.916661539677</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>1204.286010742188</v>
+      </c>
+      <c r="F1149" t="inlineStr"/>
+      <c r="G1149" t="n">
+        <v>1554242</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1149" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1149" t="inlineStr"/>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>1193.504608572393</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>1336.295969119274</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>1182.623901343255</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>1250.392578125</v>
+      </c>
+      <c r="F1150" t="inlineStr"/>
+      <c r="G1150" t="n">
+        <v>1895274</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1150" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>1259.981595642684</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>1322.583204889916</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>1243.089097909305</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>1256.801879882812</v>
+      </c>
+      <c r="F1151" t="inlineStr"/>
+      <c r="G1151" t="n">
+        <v>946872</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1151" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>1273</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>1399</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>1266.75</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>1387.599975585938</v>
+      </c>
+      <c r="F1152" t="inlineStr"/>
+      <c r="G1152" t="n">
+        <v>1955046</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1152" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1152" t="inlineStr"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>1395</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>1399.900024414062</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>1261.050048828125</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>1290.800048828125</v>
+      </c>
+      <c r="F1153" t="inlineStr"/>
+      <c r="G1153" t="n">
+        <v>768603</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1153" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>1295</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>1295</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>1195</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>1239.5</v>
+      </c>
+      <c r="F1154" t="inlineStr"/>
+      <c r="G1154" t="n">
+        <v>527110</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1154" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1154" t="inlineStr"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>1255</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>1263.699951171875</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>1191.050048828125</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>1256.349975585938</v>
+      </c>
+      <c r="F1155" t="inlineStr"/>
+      <c r="G1155" t="n">
+        <v>479256</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1155" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1155" t="inlineStr"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>1280.900024414062</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>1333</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>1216.349975585938</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>1227.5</v>
+      </c>
+      <c r="F1156" t="inlineStr"/>
+      <c r="G1156" t="n">
+        <v>672776</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1156" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1156" t="inlineStr"/>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>1220</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>1426.5</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>1201.550048828125</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>1339.900024414062</v>
+      </c>
+      <c r="F1157" t="inlineStr"/>
+      <c r="G1157" t="n">
+        <v>3382447</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1157" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1157" t="inlineStr"/>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>1350.099975585938</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>1526.349975585938</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>1249.099975585938</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>1470.5</v>
+      </c>
+      <c r="F1158" t="inlineStr"/>
+      <c r="G1158" t="n">
+        <v>3743221</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1158" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1158" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1158" t="inlineStr"/>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>1478.800048828125</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>1548.949951171875</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>1340.900024414062</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>1380.400024414062</v>
+      </c>
+      <c r="F1159" t="inlineStr"/>
+      <c r="G1159" t="n">
+        <v>772833</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1159" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1159" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1159" t="inlineStr"/>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>1380</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>1386.900024414062</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>1160</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>1184.099975585938</v>
+      </c>
+      <c r="F1160" t="inlineStr"/>
+      <c r="G1160" t="n">
+        <v>697091</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1160" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1160" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1160" t="inlineStr"/>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>1189</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>1244</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>1158.550048828125</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>1229.050048828125</v>
+      </c>
+      <c r="F1161" t="inlineStr"/>
+      <c r="G1161" t="n">
+        <v>489761</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1161" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1161" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1161" t="inlineStr"/>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>1230.050048828125</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>1337.650024414062</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>1186</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>1245.75</v>
+      </c>
+      <c r="F1162" t="inlineStr"/>
+      <c r="G1162" t="n">
+        <v>960536</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1162" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1162" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1162" t="inlineStr"/>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>1231.099975585938</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>1236.199951171875</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>1090.800048828125</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>1162.599975585938</v>
+      </c>
+      <c r="F1163" t="inlineStr"/>
+      <c r="G1163" t="n">
+        <v>714599</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1163" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1163" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1163" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1163" t="inlineStr"/>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>1165</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>1179.150024414062</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>1105.5</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>1133</v>
+      </c>
+      <c r="F1164" t="inlineStr"/>
+      <c r="G1164" t="n">
+        <v>285040</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1164" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1164" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1164" t="inlineStr"/>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>1149.400024414062</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>1283.800048828125</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>1140</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>1275.949951171875</v>
+      </c>
+      <c r="F1165" t="inlineStr"/>
+      <c r="G1165" t="n">
+        <v>561606</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1165" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1165" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1165" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1165" t="inlineStr"/>
+    </row>
+    <row r="1166">
+      <c r="A1166" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1166" t="n">
+        <v>1275</v>
+      </c>
+      <c r="C1166" t="n">
+        <v>1429</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>1250</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>1417.25</v>
+      </c>
+      <c r="F1166" t="inlineStr"/>
+      <c r="G1166" t="n">
+        <v>972211</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1166" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1166" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1166" t="inlineStr"/>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1167" t="n">
+        <v>1414.849975585938</v>
+      </c>
+      <c r="C1167" t="n">
+        <v>1516</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>1363.150024414062</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>1423.449951171875</v>
+      </c>
+      <c r="F1167" t="inlineStr"/>
+      <c r="G1167" t="n">
+        <v>1095186</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1167" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1167" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1167" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1167" t="inlineStr"/>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1168" t="n">
+        <v>1403.050048828125</v>
+      </c>
+      <c r="C1168" t="n">
+        <v>1411.699951171875</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>1325.099975585938</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>1331.099975585938</v>
+      </c>
+      <c r="F1168" t="inlineStr"/>
+      <c r="G1168" t="n">
+        <v>410070</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1168" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1168" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1168" t="inlineStr"/>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1169" t="n">
+        <v>1337.800048828125</v>
+      </c>
+      <c r="C1169" t="n">
+        <v>1347.449951171875</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>1256.050048828125</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>1304.099975585938</v>
+      </c>
+      <c r="F1169" t="inlineStr"/>
+      <c r="G1169" t="n">
+        <v>489238</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1169" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1169" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1169" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1169" t="inlineStr"/>
+    </row>
+    <row r="1170">
+      <c r="A1170" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1170" t="n">
+        <v>1301.699951171875</v>
+      </c>
+      <c r="C1170" t="n">
+        <v>1359.199951171875</v>
+      </c>
+      <c r="D1170" t="n">
+        <v>1242.599975585938</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>1316</v>
+      </c>
+      <c r="F1170" t="inlineStr"/>
+      <c r="G1170" t="n">
+        <v>626439</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1170" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1170" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1170" t="inlineStr"/>
+    </row>
+    <row r="1171">
+      <c r="A1171" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1171" t="n">
+        <v>1305</v>
+      </c>
+      <c r="C1171" t="n">
+        <v>1337.949951171875</v>
+      </c>
+      <c r="D1171" t="n">
+        <v>1226.949951171875</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>1307.599975585938</v>
+      </c>
+      <c r="F1171" t="inlineStr"/>
+      <c r="G1171" t="n">
+        <v>1069805</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1171" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1171" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1171" t="inlineStr"/>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1172" t="n">
+        <v>1300.050048828125</v>
+      </c>
+      <c r="C1172" t="n">
+        <v>1349.300048828125</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>1206</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>1331.550048828125</v>
+      </c>
+      <c r="F1172" t="inlineStr"/>
+      <c r="G1172" t="n">
+        <v>863445</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1172" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1172" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1172" t="inlineStr"/>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1173" t="n">
+        <v>1350</v>
+      </c>
+      <c r="C1173" t="n">
+        <v>1439</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>1253.5</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>1264.25</v>
+      </c>
+      <c r="F1173" t="inlineStr"/>
+      <c r="G1173" t="n">
+        <v>1133478</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1173" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1173" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1173" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1173" t="inlineStr"/>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1174" t="n">
+        <v>1252.550048828125</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>1281.900024414062</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>1142</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>1277.75</v>
+      </c>
+      <c r="F1174" t="inlineStr"/>
+      <c r="G1174" t="n">
+        <v>553531</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1174" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1174" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1174" t="inlineStr"/>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>1305.050048828125</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>1470</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>1271.150024414062</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>1327.099975585938</v>
+      </c>
+      <c r="F1175" t="inlineStr"/>
+      <c r="G1175" t="n">
+        <v>1124879</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1175" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1175" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1175" t="inlineStr"/>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1176" t="n">
+        <v>1322.099975585938</v>
+      </c>
+      <c r="C1176" t="n">
+        <v>1330.050048828125</v>
+      </c>
+      <c r="D1176" t="n">
+        <v>1132.599975585938</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>1151.550048828125</v>
+      </c>
+      <c r="F1176" t="inlineStr"/>
+      <c r="G1176" t="n">
+        <v>656453</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1176" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1176" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1176" t="inlineStr"/>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>1145</v>
+      </c>
+      <c r="C1177" t="n">
+        <v>1224.900024414062</v>
+      </c>
+      <c r="D1177" t="n">
+        <v>1044.150024414062</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>1154.349975585938</v>
+      </c>
+      <c r="F1177" t="inlineStr"/>
+      <c r="G1177" t="n">
+        <v>1111069</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1177" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1177" t="inlineStr"/>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>1137.050048828125</v>
+      </c>
+      <c r="C1178" t="n">
+        <v>1158.550048828125</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>1042.300048828125</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>1050.699951171875</v>
+      </c>
+      <c r="F1178" t="inlineStr"/>
+      <c r="G1178" t="n">
+        <v>461773</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1178" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1178" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
